--- a/SparkTest/testFiles/parse.xlsx
+++ b/SparkTest/testFiles/parse.xlsx
@@ -4352,7 +4352,7 @@
   <dimension ref="A1:C1119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
